--- a/Search_Results.xlsx
+++ b/Search_Results.xlsx
@@ -15,57 +15,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>You have been blocked</t>
-  </si>
-  <si>
-    <t>https://keywordtool.io/</t>
-  </si>
-  <si>
-    <t>https://keywordtool.io/google</t>
-  </si>
-  <si>
-    <t>https://keywordtool.io/pro</t>
-  </si>
-  <si>
-    <t>https://keywordtool.io/long-tail-keywords</t>
-  </si>
-  <si>
-    <t>https://keywordtool.io/youtube</t>
-  </si>
-  <si>
-    <t>Keyword Explorer: Moz's Keyword Research Tool - Moz</t>
-  </si>
-  <si>
-    <t>https://moz.com/explorer</t>
-  </si>
-  <si>
-    <t>Free Keyword Tool | WordStream</t>
-  </si>
-  <si>
-    <t>https://www.wordstream.com/keywords</t>
-  </si>
-  <si>
-    <t>SEMrush Keyword Overview - SEMrush Toolkits | SEMrush</t>
-  </si>
-  <si>
-    <t>https://www.semrush.com/kb/257-keyword-overview</t>
-  </si>
-  <si>
-    <t>Keyword - Wikipedia</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Keyword</t>
-  </si>
-  <si>
-    <t>Keyword Research Tool: Unlimited keyword ideas for your website with Serpstat</t>
-  </si>
-  <si>
-    <t>https://serpstat.com/keyword-research/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>seo</t>
+  </si>
+  <si>
+    <t>&lt;&lt;NO TITLE FOUND&gt;&gt;</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/get-your-seo-</t>
+  </si>
+  <si>
+    <t>seoplus+ SEO Services &amp; PPC Company in Ottawa &amp; Toronto</t>
+  </si>
+  <si>
+    <t>https://www.seoplus.ca/</t>
+  </si>
+  <si>
+    <t>Why seoplus+? - seoplus+</t>
+  </si>
+  <si>
+    <t>https://www.seoplus.ca/why-seoplus.php</t>
+  </si>
+  <si>
+    <t>Contact Us in Ottawa, Toronto &amp; Calgary, Canada - seoplus+</t>
+  </si>
+  <si>
+    <t>https://www.seoplus.ca/contact-us.php</t>
+  </si>
+  <si>
+    <t>Online Marketing Plans &amp; Packages Ottawa - SEO, PPC, SMM - seoplus+</t>
+  </si>
+  <si>
+    <t>https://www.seoplus.ca/pricing.php</t>
+  </si>
+  <si>
+    <t>Search Engine Optimization (SEO) Services Canada - seoplus+</t>
+  </si>
+  <si>
+    <t>https://www.seoplus.ca/services/search-engine-optimization/</t>
+  </si>
+  <si>
+    <t>SEO+ (Search Engine Optimization) | Global Marketing Montreal</t>
+  </si>
+  <si>
+    <t>https://globalmarketingmontreal.com/seo/</t>
+  </si>
+  <si>
+    <t>Veterinary SEO Made Simple With SEO+ - LifeLearn Inc. : LifeLearn Inc.</t>
+  </si>
+  <si>
+    <t>https://www.lifelearn.com/2018/10/04/veterinary-seo-made-simple/</t>
+  </si>
+  <si>
+    <t>SEO UK - Search Engine Optimisation Company | SEO+</t>
+  </si>
+  <si>
+    <t>https://www.seo-plus.co.uk/</t>
+  </si>
+  <si>
+    <t>SEO Agency London | PPC | Social | Copywriting | SEO PLUS</t>
+  </si>
+  <si>
+    <t>http://www.seoplus.co.uk/</t>
+  </si>
+  <si>
+    <t>SEO+ - Home | Facebook</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SEOPlus1/</t>
+  </si>
+  <si>
+    <t>SEO+ Marketing (@seoplusmarketer) | Twitter</t>
+  </si>
+  <si>
+    <t>https://twitter.com/seoplusmarketer</t>
+  </si>
+  <si>
+    <t>SEO+ - Posts | Facebook</t>
+  </si>
+  <si>
+    <t>https://en-gb.facebook.com/pages/category/Local-Business/SEOPlus1/posts/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/seo-plus</t>
+  </si>
+  <si>
+    <t>SEO+ - 10 Woodleigh Road, Newton Abbot, Devon - 2019 All You Need to Know BEFORE You Go (with Photos) Yelp</t>
+  </si>
+  <si>
+    <t>https://www.yelp.co.uk/biz/seo-newton-abbot</t>
+  </si>
+  <si>
+    <t>Marketing Services – SEO+</t>
+  </si>
+  <si>
+    <t>http://www.engageremarketing.com/marketing-services-seo/</t>
   </si>
 </sst>
 </file>
@@ -401,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +473,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -442,13 +487,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -456,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -470,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -484,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -498,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -512,13 +557,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -526,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -540,13 +585,97 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="n">
         <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
